--- a/JavaWork/src/files/工作记录.xlsx
+++ b/JavaWork/src/files/工作记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,15 +27,11 @@
     <t>页数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,7 +91,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -381,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -392,18 +388,26 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/JavaWork/src/files/工作记录.xlsx
+++ b/JavaWork/src/files/工作记录.xlsx
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -410,6 +410,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JavaWork/src/files/工作记录.xlsx
+++ b/JavaWork/src/files/工作记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,6 +25,10 @@
   </si>
   <si>
     <t>页数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -68,9 +72,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -377,18 +384,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="21.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,31 +409,67 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>8.1999999999999993</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>43696</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>43697</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>43699</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>43700</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/JavaWork/src/files/工作记录.xlsx
+++ b/JavaWork/src/files/工作记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,15 +27,11 @@
     <t>页数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>109开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,12 +68,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -98,7 +91,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -384,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -398,7 +391,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,62 +402,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>43696</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>11.1</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>43697</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>43698</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>43699</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>43700</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/JavaWork/src/files/工作记录.xlsx
+++ b/JavaWork/src/files/工作记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,13 +25,29 @@
   </si>
   <si>
     <t>页数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回忆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,7 +107,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -377,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -391,7 +407,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,13 +417,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>11.1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>50</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/JavaWork/src/files/工作记录.xlsx
+++ b/JavaWork/src/files/工作记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -23,31 +23,11 @@
     <t>工作时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>页数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回忆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,7 +87,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -393,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -407,27 +387,20 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>11.26</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="1">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/JavaWork/src/files/工作记录.xlsx
+++ b/JavaWork/src/files/工作记录.xlsx
@@ -20,7 +20,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工作时间</t>
+    <t>学习时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,18 +373,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
+    <col min="2" max="2" width="28.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="17.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -397,10 +400,20 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>11.26</v>
+        <v>3.1</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>
